--- a/excel/policy/steel_capacity.xlsx
+++ b/excel/policy/steel_capacity.xlsx
@@ -1,33 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jalon/Desktop/181210_最新数据/政策进展数据汇总-统一了名字/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6766B87F-EF7E-4EE0-8966-4862B1BEAB69}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8380" yWindow="-22080" windowWidth="28800" windowHeight="16120"/>
+    <workbookView xWindow="-8385" yWindow="-22080" windowWidth="28800" windowHeight="16125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="单位 万吨" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="368">
   <si>
     <t>北京</t>
   </si>
@@ -1038,21 +1034,6 @@
   </si>
   <si>
     <t>省份</t>
-  </si>
-  <si>
-    <t>2013年</t>
-  </si>
-  <si>
-    <t>2014年</t>
-  </si>
-  <si>
-    <t>2015年</t>
-  </si>
-  <si>
-    <t>2016年</t>
-  </si>
-  <si>
-    <t>2017年</t>
   </si>
   <si>
     <t>河北</t>
@@ -1153,7 +1134,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1255,8 +1236,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2 2" xfId="1"/>
-    <cellStyle name="常规 3 2" xfId="2"/>
+    <cellStyle name="常规 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 3 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1533,51 +1514,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I339"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q18" sqref="Q18"/>
+      <selection pane="bottomRight" activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="7" width="8.83203125" style="1"/>
+    <col min="3" max="7" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>335</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>341</v>
+      <c r="C1" s="2">
+        <v>2013</v>
+      </c>
+      <c r="D1" s="2">
+        <v>2014</v>
+      </c>
+      <c r="E1" s="2">
+        <v>2015</v>
+      </c>
+      <c r="F1" s="2">
+        <v>2016</v>
+      </c>
+      <c r="G1" s="2">
+        <v>2017</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1591,7 +1572,7 @@
         <v>116.413387</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1608,12 +1589,12 @@
         <v>117.20952</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="E4" s="1">
         <v>750</v>
@@ -1631,12 +1612,12 @@
         <v>114.892574</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="F5" s="1">
         <v>122</v>
@@ -1651,12 +1632,12 @@
         <v>117.969396</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C6" s="1">
         <v>161</v>
@@ -1677,12 +1658,12 @@
         <v>119.60853400000001</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C7" s="1">
         <v>88</v>
@@ -1697,12 +1678,12 @@
         <v>116.690577</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="H8">
         <v>38.310214999999999</v>
@@ -1711,12 +1692,12 @@
         <v>116.84558</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="F9" s="1">
         <v>1569</v>
@@ -1731,12 +1712,12 @@
         <v>118.186463</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C10" s="1">
         <v>131</v>
@@ -1754,12 +1735,12 @@
         <v>114.54563</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="H11">
         <v>37.745190999999998</v>
@@ -1768,12 +1749,12 @@
         <v>115.67540200000001</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="D12" s="1">
         <v>205</v>
@@ -1794,12 +1775,12 @@
         <v>114.511459</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G13" s="1">
         <v>373</v>
@@ -1811,12 +1792,12 @@
         <v>115.47145999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C14" s="1">
         <v>112</v>
@@ -1834,7 +1815,7 @@
         <v>114.521529</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
@@ -1848,12 +1829,12 @@
         <v>121.48054</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="H16">
         <v>29.990911000000001</v>
@@ -1862,12 +1843,12 @@
         <v>122.21355699999999</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="F17" s="1">
         <v>50</v>
@@ -1879,12 +1860,12 @@
         <v>119.929571</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="H18">
         <v>28.662192999999998</v>
@@ -1893,12 +1874,12 @@
         <v>121.427432</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="E19" s="1">
         <v>9.6</v>
@@ -1910,12 +1891,12 @@
         <v>120.706479</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="H20">
         <v>29.866033999999999</v>
@@ -1924,12 +1905,12 @@
         <v>121.62857200000001</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="H21">
         <v>28.975546000000001</v>
@@ -1938,12 +1919,12 @@
         <v>118.866597</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="H22">
         <v>30.750973999999999</v>
@@ -1952,12 +1933,12 @@
         <v>120.763549</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="H23">
         <v>30.036370000000002</v>
@@ -1966,12 +1947,12 @@
         <v>120.585477</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="H24">
         <v>29.08464</v>
@@ -1980,12 +1961,12 @@
         <v>119.653441</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="H25">
         <v>30.898963999999999</v>
@@ -1994,12 +1975,12 @@
         <v>120.09451799999999</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="H26">
         <v>30.253081999999999</v>
@@ -2008,12 +1989,12 @@
         <v>120.21550999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="H27">
         <v>33.355100999999998</v>
@@ -2022,12 +2003,12 @@
         <v>120.167541</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="H28">
         <v>31.303564999999999</v>
@@ -2036,12 +2017,12 @@
         <v>120.592412</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="H29">
         <v>31.986549</v>
@@ -2050,12 +2031,12 @@
         <v>120.901591</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="H30">
         <v>34.602249</v>
@@ -2064,12 +2045,12 @@
         <v>119.228623</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="H31">
         <v>32.064652000000002</v>
@@ -2078,12 +2059,12 @@
         <v>118.80242200000001</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="H32">
         <v>31.815795999999999</v>
@@ -2092,12 +2073,12 @@
         <v>119.98148399999999</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D33" s="1">
         <v>20</v>
@@ -2112,12 +2093,12 @@
         <v>119.43049000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="G34" s="1">
         <v>88</v>
@@ -2129,12 +2110,12 @@
         <v>119.41942299999999</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="H35">
         <v>32.460675000000002</v>
@@ -2143,12 +2124,12 @@
         <v>119.929571</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="H36">
         <v>31.498809999999999</v>
@@ -2157,12 +2138,12 @@
         <v>120.31858200000001</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="F37" s="1">
         <v>137</v>
@@ -2174,12 +2155,12 @@
         <v>119.021483</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="H38">
         <v>33.967750000000002</v>
@@ -2188,12 +2169,12 @@
         <v>118.281575</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="F39" s="1">
         <v>200</v>
@@ -2205,12 +2186,12 @@
         <v>117.29057400000001</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="H40">
         <v>22.276564</v>
@@ -2219,12 +2200,12 @@
         <v>113.58255699999999</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="H41">
         <v>22.548456000000002</v>
@@ -2233,12 +2214,12 @@
         <v>114.06455200000001</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="G42" s="1">
         <v>111</v>
@@ -2250,12 +2231,12 @@
         <v>114.42355999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="H43">
         <v>22.522314000000001</v>
@@ -2264,12 +2245,12 @@
         <v>113.39942000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="H44">
         <v>22.584603999999999</v>
@@ -2278,12 +2259,12 @@
         <v>113.08855200000001</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="H45">
         <v>23.027308000000001</v>
@@ -2292,12 +2273,12 @@
         <v>113.75841800000001</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="H46">
         <v>23.135335999999999</v>
@@ -2306,12 +2287,12 @@
         <v>113.271429</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="H47">
         <v>23.052889</v>
@@ -2320,12 +2301,12 @@
         <v>112.47148799999999</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="H48">
         <v>23.027759</v>
@@ -2334,12 +2315,12 @@
         <v>113.12850899999999</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="H49">
         <v>23.359090999999999</v>
@@ -2348,12 +2329,12 @@
         <v>116.688529</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="H50">
         <v>21.276724000000002</v>
@@ -2362,12 +2343,12 @@
         <v>110.365554</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="H51">
         <v>24.294177000000001</v>
@@ -2376,12 +2357,12 @@
         <v>116.129541</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="H52">
         <v>21.669063999999999</v>
@@ -2390,12 +2371,12 @@
         <v>110.931541</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="H53">
         <v>23.749684999999999</v>
@@ -2404,12 +2385,12 @@
         <v>114.707442</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="H54">
         <v>22.791262</v>
@@ -2418,12 +2399,12 @@
         <v>115.38154900000001</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="H55">
         <v>21.864339000000001</v>
@@ -2432,12 +2413,12 @@
         <v>111.98848700000001</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="H56">
         <v>23.688229</v>
@@ -2446,12 +2427,12 @@
         <v>113.062465</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="H57">
         <v>23.662623</v>
@@ -2460,12 +2441,12 @@
         <v>116.62946599999999</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="H58">
         <v>23.555741000000001</v>
@@ -2474,12 +2455,12 @@
         <v>116.37851499999999</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="H59">
         <v>24.81588</v>
@@ -2488,12 +2469,12 @@
         <v>113.60352399999999</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="H60">
         <v>22.920911</v>
@@ -2502,12 +2483,12 @@
         <v>112.051512</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="H61">
         <v>34.753439999999998</v>
@@ -2516,12 +2497,12 @@
         <v>113.631416</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="H62">
         <v>33.77205</v>
@@ -2530,12 +2511,12 @@
         <v>113.199529</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="G63" s="1">
         <v>240</v>
@@ -2547,12 +2528,12 @@
         <v>111.20653</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="H64">
         <v>34.624263999999997</v>
@@ -2561,12 +2542,12 @@
         <v>112.459424</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="H65">
         <v>36.105939999999997</v>
@@ -2575,12 +2556,12 @@
         <v>114.399503</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>64</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="H66">
         <v>34.802885000000003</v>
@@ -2589,12 +2570,12 @@
         <v>114.314595</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>65</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="H67">
         <v>35.220964000000002</v>
@@ -2603,12 +2584,12 @@
         <v>113.248549</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>66</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="H68">
         <v>32.996561</v>
@@ -2617,12 +2598,12 @@
         <v>112.534504</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>67</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="H69">
         <v>32.153013999999999</v>
@@ -2631,12 +2612,12 @@
         <v>114.09748399999999</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>68</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="H70">
         <v>34.041432999999998</v>
@@ -2645,12 +2626,12 @@
         <v>113.85847200000001</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="H71">
         <v>33.631829000000003</v>
@@ -2659,12 +2640,12 @@
         <v>114.703481</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>70</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="H72">
         <v>35.752358999999998</v>
@@ -2673,12 +2654,12 @@
         <v>114.303591</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>71</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="H73">
         <v>35.767592999999998</v>
@@ -2687,12 +2668,12 @@
         <v>115.03559300000001</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>72</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="H74">
         <v>35.309640000000002</v>
@@ -2701,12 +2682,12 @@
         <v>113.93359700000001</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>73</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="H75">
         <v>33.587710000000001</v>
@@ -2715,12 +2696,12 @@
         <v>114.023419</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>74</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="H76">
         <v>34.420202000000003</v>
@@ -2729,12 +2710,12 @@
         <v>115.662449</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>75</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="H77">
         <v>33.017842000000002</v>
@@ -2743,12 +2724,12 @@
         <v>114.02846700000001</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="G78" s="1">
         <v>55</v>
@@ -2760,12 +2741,12 @@
         <v>111.755512</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>77</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H79">
         <v>42.261687999999999</v>
@@ -2774,12 +2755,12 @@
         <v>118.895522</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H80">
         <v>40.662928999999998</v>
@@ -2788,12 +2769,12 @@
         <v>109.84654</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>79</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H81">
         <v>39.614483</v>
@@ -2802,12 +2783,12 @@
         <v>109.787441</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>80</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F82" s="1">
         <v>60</v>
@@ -2819,12 +2800,12 @@
         <v>113.13946799999999</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>81</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H83">
         <v>43.939424000000002</v>
@@ -2833,12 +2814,12 @@
         <v>116.054388</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>82</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H84">
         <v>39.662005999999998</v>
@@ -2847,12 +2828,12 @@
         <v>106.80039499999999</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H85">
         <v>49.218446</v>
@@ -2861,12 +2842,12 @@
         <v>119.772367</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>84</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H86">
         <v>40.749358000000001</v>
@@ -2875,12 +2856,12 @@
         <v>107.3944</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>85</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H87">
         <v>43.657980000000002</v>
@@ -2889,12 +2870,12 @@
         <v>122.250523</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>86</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H88">
         <v>46.088464000000002</v>
@@ -2903,12 +2884,12 @@
         <v>122.04436099999999</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>87</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H89">
         <v>38.858277000000001</v>
@@ -2917,12 +2898,12 @@
         <v>105.735373</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>88</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="E90" s="1">
         <v>10</v>
@@ -2934,12 +2915,12 @@
         <v>112.55639600000001</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>89</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="H91">
         <v>40.082470000000001</v>
@@ -2948,12 +2929,12 @@
         <v>113.30643600000001</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>90</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="H92">
         <v>36.201267000000001</v>
@@ -2962,12 +2943,12 @@
         <v>113.122562</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>91</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="F93" s="1">
         <v>82</v>
@@ -2979,12 +2960,12 @@
         <v>111.525527</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="H94">
         <v>37.862361999999997</v>
@@ -2993,12 +2974,12 @@
         <v>113.587615</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>93</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="H95">
         <v>35.496284000000003</v>
@@ -3007,12 +2988,12 @@
         <v>112.858577</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>94</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="H96">
         <v>39.337110000000003</v>
@@ -3021,12 +3002,12 @@
         <v>112.439374</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>95</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="H97">
         <v>37.692841000000001</v>
@@ -3035,12 +3016,12 @@
         <v>112.759593</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>96</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="H98">
         <v>35.032705999999997</v>
@@ -3049,12 +3030,12 @@
         <v>111.013385</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>97</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="H99">
         <v>38.422381999999999</v>
@@ -3063,12 +3044,12 @@
         <v>112.74062000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>98</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="H100">
         <v>37.524498999999999</v>
@@ -3077,12 +3058,12 @@
         <v>111.15044899999999</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H101">
         <v>36.656554</v>
@@ -3091,12 +3072,12 @@
         <v>117.12639900000001</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="D102" s="1">
         <v>110</v>
@@ -3108,12 +3089,12 @@
         <v>120.389458</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E103" s="1">
         <v>225</v>
@@ -3125,12 +3106,12 @@
         <v>118.061455</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H104">
         <v>34.815994000000003</v>
@@ -3139,12 +3120,12 @@
         <v>117.330539</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H105">
         <v>37.470039999999997</v>
@@ -3153,12 +3134,12 @@
         <v>121.45441700000001</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>104</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H106">
         <v>36.712649999999996</v>
@@ -3167,12 +3148,12 @@
         <v>119.168374</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="F107" s="1">
         <v>30</v>
@@ -3184,12 +3165,12 @@
         <v>116.593614</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H108">
         <v>36.205857000000002</v>
@@ -3198,12 +3179,12 @@
         <v>117.094492</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H109">
         <v>35.422839000000003</v>
@@ -3212,12 +3193,12 @@
         <v>119.533418</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H110">
         <v>37.454847999999998</v>
@@ -3226,12 +3207,12 @@
         <v>118.588463</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="F111" s="1">
         <v>70</v>
@@ -3243,12 +3224,12 @@
         <v>115.99158799999999</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>110</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="G112" s="1">
         <v>183</v>
@@ -3260,12 +3241,12 @@
         <v>117.9774</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>111</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H113">
         <v>35.239407999999997</v>
@@ -3274,12 +3255,12 @@
         <v>115.487549</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>112</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H114">
         <v>36.219470999999999</v>
@@ -3288,12 +3269,12 @@
         <v>117.68354600000001</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>113</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H115">
         <v>37.516430999999997</v>
@@ -3302,12 +3283,12 @@
         <v>122.127545</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>114</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H116">
         <v>37.441307999999999</v>
@@ -3316,12 +3297,12 @@
         <v>116.36555300000001</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>115</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="G117" s="1">
         <v>120</v>
@@ -3333,12 +3314,12 @@
         <v>118.36353699999999</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>116</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H118">
         <v>31.826578000000001</v>
@@ -3347,12 +3328,12 @@
         <v>117.233441</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>117</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H119">
         <v>31.358536999999998</v>
@@ -3361,12 +3342,12 @@
         <v>118.439435</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>118</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H120">
         <v>31.676265000000001</v>
@@ -3375,12 +3356,12 @@
         <v>118.513581</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
         <v>119</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H121">
         <v>33.850642000000001</v>
@@ -3389,12 +3370,12 @@
         <v>115.78446599999999</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
         <v>120</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H122">
         <v>31.741451999999999</v>
@@ -3403,12 +3384,12 @@
         <v>116.52641199999999</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
         <v>121</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H123">
         <v>32.261271000000001</v>
@@ -3417,12 +3398,12 @@
         <v>118.33940800000001</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>122</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H124">
         <v>30.670884999999998</v>
@@ -3431,12 +3412,12 @@
         <v>117.498424</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
         <v>123</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F125" s="1">
         <v>33</v>
@@ -3448,12 +3429,12 @@
         <v>118.76553699999999</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
         <v>124</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H126">
         <v>32.896062000000001</v>
@@ -3462,12 +3443,12 @@
         <v>115.82043400000001</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
         <v>125</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H127">
         <v>33.652096</v>
@@ -3476,12 +3457,12 @@
         <v>116.97054300000001</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
         <v>126</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H128">
         <v>32.921523000000001</v>
@@ -3490,12 +3471,12 @@
         <v>117.39551400000001</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
         <v>127</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H129">
         <v>32.631847</v>
@@ -3504,12 +3485,12 @@
         <v>117.00638600000001</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
         <v>128</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H130">
         <v>33.961657000000002</v>
@@ -3518,12 +3499,12 @@
         <v>116.804536</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
         <v>129</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H131">
         <v>30.951232999999998</v>
@@ -3532,12 +3513,12 @@
         <v>117.81848100000001</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
         <v>130</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H132">
         <v>30.530957000000001</v>
@@ -3546,12 +3527,12 @@
         <v>117.063608</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
         <v>131</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H133">
         <v>30.130389999999998</v>
@@ -3560,12 +3541,12 @@
         <v>118.16808899999999</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>132</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="H134">
         <v>28.689454999999999</v>
@@ -3574,12 +3555,12 @@
         <v>115.86458500000001</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>133</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="H135">
         <v>29.71134</v>
@@ -3588,12 +3569,12 @@
         <v>116.007533</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
         <v>134</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="H136">
         <v>27.823578999999999</v>
@@ -3602,12 +3583,12 @@
         <v>114.92353900000001</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
         <v>135</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="H137">
         <v>28.265787</v>
@@ -3616,12 +3597,12 @@
         <v>117.07557300000001</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
         <v>136</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="H138">
         <v>27.954892999999998</v>
@@ -3630,12 +3611,12 @@
         <v>116.364537</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
         <v>137</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="H139">
         <v>25.835176000000001</v>
@@ -3644,12 +3625,12 @@
         <v>114.94050799999999</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
         <v>138</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="H140">
         <v>28.460626000000001</v>
@@ -3658,12 +3639,12 @@
         <v>117.94946299999999</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
         <v>139</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="F141" s="1">
         <v>215</v>
@@ -3675,12 +3656,12 @@
         <v>113.86149899999999</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
         <v>140</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="H142">
         <v>27.119727000000001</v>
@@ -3689,12 +3670,12 @@
         <v>115.000514</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
         <v>141</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="F143" s="1">
         <v>18</v>
@@ -3706,12 +3687,12 @@
         <v>114.42355999999999</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
         <v>142</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="H144">
         <v>29.274248</v>
@@ -3720,12 +3701,12 @@
         <v>117.184574</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>143</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="H145">
         <v>26.080428999999999</v>
@@ -3734,12 +3715,12 @@
         <v>119.30347</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>144</v>
       </c>
       <c r="B146" s="10" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="H146">
         <v>24.485408</v>
@@ -3748,12 +3729,12 @@
         <v>118.096435</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>145</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="H147">
         <v>24.879951999999999</v>
@@ -3762,12 +3743,12 @@
         <v>118.682444</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
         <v>146</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="H148">
         <v>25.081219999999998</v>
@@ -3776,12 +3757,12 @@
         <v>117.023445</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
         <v>147</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="H149">
         <v>26.672242000000001</v>
@@ -3790,12 +3771,12 @@
         <v>119.55450999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
         <v>148</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="H150">
         <v>25.459865000000001</v>
@@ -3804,12 +3785,12 @@
         <v>119.014521</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
         <v>149</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="H151">
         <v>24.518930000000001</v>
@@ -3818,12 +3799,12 @@
         <v>117.65357899999999</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
         <v>150</v>
       </c>
       <c r="B152" s="10" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="H152">
         <v>26.269736000000002</v>
@@ -3832,12 +3813,12 @@
         <v>117.645521</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
         <v>151</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="H153">
         <v>26.647772</v>
@@ -3846,12 +3827,12 @@
         <v>118.18437</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
         <v>152</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F154" s="1">
         <v>569</v>
@@ -3863,12 +3844,12 @@
         <v>114.31158600000001</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
         <v>153</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="H155">
         <v>30.697445999999999</v>
@@ -3877,12 +3858,12 @@
         <v>111.292552</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
         <v>154</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="H156">
         <v>30.340843</v>
@@ -3891,12 +3872,12 @@
         <v>112.245519</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="8" t="s">
         <v>155</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F157" s="1">
         <v>129</v>
@@ -3908,12 +3889,12 @@
         <v>115.045529</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="8" t="s">
         <v>156</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F158" s="1">
         <v>222</v>
@@ -3925,12 +3906,12 @@
         <v>114.901611</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="8" t="s">
         <v>157</v>
       </c>
       <c r="B159" s="10" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="H159">
         <v>30.930689999999998</v>
@@ -3939,12 +3920,12 @@
         <v>113.922512</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="8" t="s">
         <v>158</v>
       </c>
       <c r="B160" s="10" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="H160">
         <v>30.459358999999999</v>
@@ -3953,12 +3934,12 @@
         <v>114.878489</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="8" t="s">
         <v>159</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="H161">
         <v>29.847055999999998</v>
@@ -3967,12 +3948,12 @@
         <v>114.328519</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="8" t="s">
         <v>160</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="H162">
         <v>32.635063000000002</v>
@@ -3981,12 +3962,12 @@
         <v>110.804529</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="8" t="s">
         <v>161</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="H163">
         <v>32.014797000000002</v>
@@ -3995,12 +3976,12 @@
         <v>112.128533</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="8" t="s">
         <v>162</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="H164">
         <v>31.041733000000001</v>
@@ -4009,12 +3990,12 @@
         <v>112.206389</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="8" t="s">
         <v>163</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="H165">
         <v>31.696515999999999</v>
@@ -4023,12 +4004,12 @@
         <v>113.389448</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="8" t="s">
         <v>164</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="H166">
         <v>30.277939</v>
@@ -4037,12 +4018,12 @@
         <v>109.49459299999999</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
         <v>165</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="H167">
         <v>28.23489</v>
@@ -4051,12 +4032,12 @@
         <v>112.94547</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
         <v>166</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="H168">
         <v>27.833568</v>
@@ -4065,12 +4046,12 @@
         <v>113.140474</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
         <v>167</v>
       </c>
       <c r="B169" s="10" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="H169">
         <v>27.835702999999999</v>
@@ -4079,12 +4060,12 @@
         <v>112.950464</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
         <v>168</v>
       </c>
       <c r="B170" s="10" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="E170" s="1">
         <v>10</v>
@@ -4096,12 +4077,12 @@
         <v>111.705449</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
         <v>169</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="H171">
         <v>29.122817000000001</v>
@@ -4110,12 +4091,12 @@
         <v>110.48553200000001</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
         <v>170</v>
       </c>
       <c r="B172" s="10" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="H172">
         <v>29.363177</v>
@@ -4124,12 +4105,12 @@
         <v>113.135488</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="8" t="s">
         <v>171</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="H173">
         <v>26.899574999999999</v>
@@ -4138,12 +4119,12 @@
         <v>112.57844900000001</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="8" t="s">
         <v>172</v>
       </c>
       <c r="B174" s="10" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="H174">
         <v>27.245270999999999</v>
@@ -4152,12 +4133,12 @@
         <v>111.47443199999999</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="8" t="s">
         <v>173</v>
       </c>
       <c r="B175" s="10" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="H175">
         <v>28.559712000000001</v>
@@ -4166,12 +4147,12 @@
         <v>112.36151700000001</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="8" t="s">
         <v>174</v>
       </c>
       <c r="B176" s="10" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="H176">
         <v>25.776682999999998</v>
@@ -4180,12 +4161,12 @@
         <v>113.021458</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="8" t="s">
         <v>175</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="H177">
         <v>27.703208</v>
@@ -4194,12 +4175,12 @@
         <v>112.001503</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="8" t="s">
         <v>176</v>
       </c>
       <c r="B178" s="10" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="H178">
         <v>28.317367999999998</v>
@@ -4208,12 +4189,12 @@
         <v>109.74558</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="8" t="s">
         <v>177</v>
       </c>
       <c r="B179" s="10" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="H179">
         <v>26.425864000000001</v>
@@ -4222,12 +4203,12 @@
         <v>111.619454</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="8" t="s">
         <v>178</v>
       </c>
       <c r="B180" s="10" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="H180">
         <v>27.575161000000001</v>
@@ -4236,12 +4217,12 @@
         <v>110.00851400000001</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
         <v>179</v>
       </c>
       <c r="B181" s="10" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="H181">
         <v>22.822607000000001</v>
@@ -4250,12 +4231,12 @@
         <v>108.373454</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
         <v>180</v>
       </c>
       <c r="B182" s="10" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="H182">
         <v>25.242887</v>
@@ -4264,12 +4245,12 @@
         <v>110.20354500000001</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
         <v>181</v>
       </c>
       <c r="B183" s="10" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="H183">
         <v>21.486836</v>
@@ -4278,12 +4259,12 @@
         <v>109.126531</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
         <v>182</v>
       </c>
       <c r="B184" s="10" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="H184">
         <v>24.331961</v>
@@ -4292,12 +4273,12 @@
         <v>109.434425</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="8" t="s">
         <v>183</v>
       </c>
       <c r="B185" s="10" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="H185">
         <v>22.659831000000001</v>
@@ -4306,12 +4287,12 @@
         <v>110.188453</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="8" t="s">
         <v>184</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="H186">
         <v>23.908187000000002</v>
@@ -4320,12 +4301,12 @@
         <v>106.624588</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="8" t="s">
         <v>185</v>
       </c>
       <c r="B187" s="10" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="H187">
         <v>24.40945</v>
@@ -4334,12 +4315,12 @@
         <v>111.57352400000001</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="8" t="s">
         <v>186</v>
       </c>
       <c r="B188" s="10" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="H188">
         <v>24.698912</v>
@@ -4348,12 +4329,12 @@
         <v>108.091503</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="8" t="s">
         <v>187</v>
       </c>
       <c r="B189" s="10" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="H189">
         <v>23.756546</v>
@@ -4362,12 +4343,12 @@
         <v>109.22745500000001</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="8" t="s">
         <v>188</v>
       </c>
       <c r="B190" s="10" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="H190">
         <v>22.383116999999999</v>
@@ -4376,12 +4357,12 @@
         <v>107.37152</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="8" t="s">
         <v>189</v>
       </c>
       <c r="B191" s="10" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="H191">
         <v>23.482745999999999</v>
@@ -4390,12 +4371,12 @@
         <v>111.285518</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="8" t="s">
         <v>190</v>
       </c>
       <c r="B192" s="10" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="H192">
         <v>21.693004999999999</v>
@@ -4404,12 +4385,12 @@
         <v>108.36042</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="8" t="s">
         <v>191</v>
       </c>
       <c r="B193" s="10" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="H193">
         <v>21.986592999999999</v>
@@ -4418,12 +4399,12 @@
         <v>108.66058</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="8" t="s">
         <v>192</v>
       </c>
       <c r="B194" s="10" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="H194">
         <v>23.117448</v>
@@ -4432,12 +4413,12 @@
         <v>109.60551599999999</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
         <v>193</v>
       </c>
       <c r="B195" s="10" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="H195">
         <v>20.044049999999999</v>
@@ -4446,12 +4427,12 @@
         <v>110.325526</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
         <v>194</v>
       </c>
       <c r="B196" s="10" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="H196">
         <v>18.258735999999999</v>
@@ -4460,12 +4441,12 @@
         <v>109.51855999999999</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
         <v>195</v>
       </c>
       <c r="B197" s="10" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="H197">
         <v>45.808824000000001</v>
@@ -4474,12 +4455,12 @@
         <v>126.541611</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
         <v>196</v>
       </c>
       <c r="B198" s="10" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="H198">
         <v>47.359977999999998</v>
@@ -4488,12 +4469,12 @@
         <v>123.92456900000001</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
         <v>197</v>
       </c>
       <c r="B199" s="10" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="H199">
         <v>46.593634999999999</v>
@@ -4502,12 +4483,12 @@
         <v>125.108661</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
         <v>198</v>
       </c>
       <c r="B200" s="10" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="H200">
         <v>44.556246999999999</v>
@@ -4516,12 +4497,12 @@
         <v>129.639544</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="8" t="s">
         <v>199</v>
       </c>
       <c r="B201" s="10" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="H201">
         <v>45.300874</v>
@@ -4530,12 +4511,12 @@
         <v>130.97561999999999</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="8" t="s">
         <v>200</v>
       </c>
       <c r="B202" s="10" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="H202">
         <v>47.356056000000002</v>
@@ -4544,12 +4525,12 @@
         <v>130.30443299999999</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="8" t="s">
         <v>201</v>
       </c>
       <c r="B203" s="10" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="H203">
         <v>46.653185000000001</v>
@@ -4558,12 +4539,12 @@
         <v>131.16534200000001</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="8" t="s">
         <v>202</v>
       </c>
       <c r="B204" s="10" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="H204">
         <v>47.733319000000002</v>
@@ -4572,12 +4553,12 @@
         <v>128.847544</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="8" t="s">
         <v>203</v>
       </c>
       <c r="B205" s="10" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="H205">
         <v>46.805691000000003</v>
@@ -4586,12 +4567,12 @@
         <v>130.327358</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="8" t="s">
         <v>204</v>
       </c>
       <c r="B206" s="10" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="H206">
         <v>45.776299999999999</v>
@@ -4600,12 +4581,12 @@
         <v>131.01154399999999</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="8" t="s">
         <v>205</v>
       </c>
       <c r="B207" s="10" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="H207">
         <v>50.251272999999998</v>
@@ -4614,12 +4595,12 @@
         <v>127.535487</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="8" t="s">
         <v>206</v>
       </c>
       <c r="B208" s="10" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="H208">
         <v>46.660032000000001</v>
@@ -4628,12 +4609,12 @@
         <v>126.975358</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="28" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A209" s="8" t="s">
         <v>207</v>
       </c>
       <c r="B209" s="10" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="H209">
         <v>50.420026999999997</v>
@@ -4642,7 +4623,7 @@
         <v>124.15292700000001</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
         <v>208</v>
       </c>
@@ -4659,7 +4640,7 @@
         <v>125.330606</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
         <v>209</v>
       </c>
@@ -4673,7 +4654,7 @@
         <v>126.555634</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="8" t="s">
         <v>210</v>
       </c>
@@ -4687,7 +4668,7 @@
         <v>124.356483</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="8" t="s">
         <v>211</v>
       </c>
@@ -4701,7 +4682,7 @@
         <v>125.150423</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="8" t="s">
         <v>212</v>
       </c>
@@ -4715,7 +4696,7 @@
         <v>125.94661000000001</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="8" t="s">
         <v>213</v>
       </c>
@@ -4729,7 +4710,7 @@
         <v>126.42962799999999</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="8" t="s">
         <v>214</v>
       </c>
@@ -4743,7 +4724,7 @@
         <v>124.83148</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="8" t="s">
         <v>215</v>
       </c>
@@ -4757,7 +4738,7 @@
         <v>122.84558699999999</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="8" t="s">
         <v>216</v>
       </c>
@@ -4771,12 +4752,12 @@
         <v>129.477372</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
         <v>217</v>
       </c>
       <c r="B219" s="10" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="H219">
         <v>41.720914999999998</v>
@@ -4785,12 +4766,12 @@
         <v>123.455986</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="4" t="s">
         <v>218</v>
       </c>
       <c r="B220" s="10" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="H220">
         <v>38.918953000000002</v>
@@ -4799,12 +4780,12 @@
         <v>121.621628</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="4" t="s">
         <v>219</v>
       </c>
       <c r="B221" s="10" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="H221">
         <v>41.115051999999999</v>
@@ -4813,12 +4794,12 @@
         <v>123.00137100000001</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
         <v>220</v>
       </c>
       <c r="B222" s="10" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="H222">
         <v>41.885967999999998</v>
@@ -4827,12 +4808,12 @@
         <v>123.96437299999999</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
         <v>221</v>
       </c>
       <c r="B223" s="10" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="H223">
         <v>41.492915000000004</v>
@@ -4841,12 +4822,12 @@
         <v>123.69251</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
         <v>222</v>
       </c>
       <c r="B224" s="10" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="H224">
         <v>41.100932999999998</v>
@@ -4855,12 +4836,12 @@
         <v>121.132599</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
         <v>223</v>
       </c>
       <c r="B225" s="10" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="H225">
         <v>40.006408</v>
@@ -4869,12 +4850,12 @@
         <v>124.36154999999999</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
         <v>224</v>
       </c>
       <c r="B226" s="10" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="H226">
         <v>40.673138000000002</v>
@@ -4883,12 +4864,12 @@
         <v>122.241575</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="8" t="s">
         <v>225</v>
       </c>
       <c r="B227" s="10" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="H227">
         <v>42.028022</v>
@@ -4897,12 +4878,12 @@
         <v>121.676407</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="4" t="s">
         <v>226</v>
       </c>
       <c r="B228" s="10" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="H228">
         <v>41.125874000000003</v>
@@ -4911,12 +4892,12 @@
         <v>122.07749099999999</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="4" t="s">
         <v>227</v>
       </c>
       <c r="B229" s="10" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="H229">
         <v>40.717362999999999</v>
@@ -4925,12 +4906,12 @@
         <v>120.84339900000001</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="8" t="s">
         <v>228</v>
       </c>
       <c r="B230" s="10" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="H230">
         <v>41.274161999999997</v>
@@ -4939,12 +4920,12 @@
         <v>123.24336599999999</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="8" t="s">
         <v>229</v>
       </c>
       <c r="B231" s="10" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="H231">
         <v>42.229950000000002</v>
@@ -4953,12 +4934,12 @@
         <v>123.732367</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="8" t="s">
         <v>230</v>
       </c>
       <c r="B232" s="10" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="H232">
         <v>41.579822</v>
@@ -4967,12 +4948,12 @@
         <v>120.45749600000001</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="s">
         <v>231</v>
       </c>
       <c r="B233" s="10" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C233" s="1">
         <v>102.5</v>
@@ -4990,12 +4971,12 @@
         <v>87.624437999999998</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
         <v>232</v>
       </c>
       <c r="B234" s="10" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="H234">
         <v>45.585673999999997</v>
@@ -5004,12 +4985,12 @@
         <v>84.895898000000003</v>
       </c>
     </row>
-    <row r="235" spans="1:9" ht="28" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A235" s="8" t="s">
         <v>233</v>
       </c>
       <c r="B235" s="10" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="H235">
         <v>42.946289</v>
@@ -5018,12 +4999,12 @@
         <v>89.180436999999998</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
         <v>234</v>
       </c>
       <c r="B236" s="10" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="H236">
         <v>41.732371999999998</v>
@@ -5032,12 +5013,12 @@
         <v>86.181489999999997</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="8" t="s">
         <v>235</v>
       </c>
       <c r="B237" s="10" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="H237">
         <v>44.012397</v>
@@ -5046,12 +5027,12 @@
         <v>87.286033000000003</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="8" t="s">
         <v>236</v>
       </c>
       <c r="B238" s="10" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="H238">
         <v>43.922722</v>
@@ -5060,12 +5041,12 @@
         <v>81.330541999999994</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="8" t="s">
         <v>237</v>
       </c>
       <c r="B239" s="10" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="H239">
         <v>42.868664000000003</v>
@@ -5074,12 +5055,12 @@
         <v>93.523139</v>
       </c>
     </row>
-    <row r="240" spans="1:9" ht="28" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A240" s="8" t="s">
         <v>238</v>
       </c>
       <c r="B240" s="10" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="H240">
         <v>44.912196000000002</v>
@@ -5088,12 +5069,12 @@
         <v>82.072909999999993</v>
       </c>
     </row>
-    <row r="241" spans="1:9" ht="28" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A241" s="8" t="s">
         <v>239</v>
       </c>
       <c r="B241" s="10" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="H241">
         <v>41.175029000000002</v>
@@ -5102,12 +5083,12 @@
         <v>80.266938999999994</v>
       </c>
     </row>
-    <row r="242" spans="1:9" ht="42" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A242" s="8" t="s">
         <v>240</v>
       </c>
       <c r="B242" s="10" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="H242">
         <v>39.720471000000003</v>
@@ -5116,12 +5097,12 @@
         <v>76.174312999999998</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" s="8" t="s">
         <v>241</v>
       </c>
       <c r="B243" s="10" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="H243">
         <v>39.476098</v>
@@ -5130,12 +5111,12 @@
         <v>75.996395000000007</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="8" t="s">
         <v>242</v>
       </c>
       <c r="B244" s="10" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="H244">
         <v>37.120446999999999</v>
@@ -5144,12 +5125,12 @@
         <v>79.928511</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="8" t="s">
         <v>243</v>
       </c>
       <c r="B245" s="10" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="H245">
         <v>46.750946999999996</v>
@@ -5158,12 +5139,12 @@
         <v>82.987233000000003</v>
       </c>
     </row>
-    <row r="246" spans="1:9" ht="28" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A246" s="8" t="s">
         <v>244</v>
       </c>
       <c r="B246" s="10" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="H246">
         <v>47.358299000000002</v>
@@ -5172,12 +5153,12 @@
         <v>87.835809999999995</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="8" t="s">
         <v>245</v>
       </c>
       <c r="B247" s="10" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="H247">
         <v>44.172445000000003</v>
@@ -5186,12 +5167,12 @@
         <v>87.549932999999996</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="8" t="s">
         <v>246</v>
       </c>
       <c r="B248" s="10" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="H248">
         <v>44.311974999999997</v>
@@ -5200,12 +5181,12 @@
         <v>86.086889999999997</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="4" t="s">
         <v>247</v>
       </c>
       <c r="B249" s="10" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="H249">
         <v>36.067234999999997</v>
@@ -5214,12 +5195,12 @@
         <v>103.840524</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="4" t="s">
         <v>248</v>
       </c>
       <c r="B250" s="10" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="H250">
         <v>38.525821000000001</v>
@@ -5228,12 +5209,12 @@
         <v>102.194603</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" s="4" t="s">
         <v>249</v>
       </c>
       <c r="B251" s="10" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="H251">
         <v>39.777960999999998</v>
@@ -5242,12 +5223,12 @@
         <v>98.296199999999999</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" s="8" t="s">
         <v>250</v>
       </c>
       <c r="B252" s="10" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="H252">
         <v>39.738467999999997</v>
@@ -5256,12 +5237,12 @@
         <v>98.500681</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" s="8" t="s">
         <v>251</v>
       </c>
       <c r="B253" s="10" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="H253">
         <v>35.607562000000001</v>
@@ -5270,12 +5251,12 @@
         <v>103.21639</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" s="8" t="s">
         <v>252</v>
       </c>
       <c r="B254" s="10" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="H254">
         <v>29.652888000000001</v>
@@ -5284,12 +5265,12 @@
         <v>91.140507999999997</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" s="8" t="s">
         <v>253</v>
       </c>
       <c r="B255" s="10" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="H255">
         <v>36.550826999999998</v>
@@ -5298,12 +5279,12 @@
         <v>104.144447</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" s="8" t="s">
         <v>254</v>
       </c>
       <c r="B256" s="10" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="H256">
         <v>34.587412</v>
@@ -5312,12 +5293,12 @@
         <v>105.731421</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" s="8" t="s">
         <v>255</v>
       </c>
       <c r="B257" s="10" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="H257">
         <v>37.934378000000002</v>
@@ -5326,12 +5307,12 @@
         <v>102.64455599999999</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" s="8" t="s">
         <v>256</v>
       </c>
       <c r="B258" s="10" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="H258">
         <v>35.549232000000003</v>
@@ -5340,12 +5321,12 @@
         <v>106.67144399999999</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" s="8" t="s">
         <v>257</v>
       </c>
       <c r="B259" s="10" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="H259">
         <v>38.932065000000001</v>
@@ -5354,12 +5335,12 @@
         <v>100.45640899999999</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" s="8" t="s">
         <v>258</v>
       </c>
       <c r="B260" s="10" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="H260">
         <v>35.715215999999998</v>
@@ -5368,12 +5349,12 @@
         <v>107.649384</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" s="8" t="s">
         <v>259</v>
       </c>
       <c r="B261" s="10" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="H261">
         <v>35.586834000000003</v>
@@ -5382,12 +5363,12 @@
         <v>104.63241600000001</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" s="8" t="s">
         <v>260</v>
       </c>
       <c r="B262" s="10" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="H262">
         <v>33.406621000000001</v>
@@ -5396,12 +5377,12 @@
         <v>104.928578</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" s="4" t="s">
         <v>261</v>
       </c>
       <c r="B263" s="10" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="H263">
         <v>36.623384999999999</v>
@@ -5410,12 +5391,12 @@
         <v>101.784446</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" s="8" t="s">
         <v>262</v>
       </c>
       <c r="B264" s="10" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="H264">
         <v>36.634287</v>
@@ -5424,12 +5405,12 @@
         <v>101.781853</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" s="8" t="s">
         <v>263</v>
       </c>
       <c r="B265" s="10" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="H265">
         <v>36.954070999999999</v>
@@ -5438,12 +5419,12 @@
         <v>100.90973700000001</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" s="8" t="s">
         <v>264</v>
       </c>
       <c r="B266" s="10" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="H266">
         <v>35.531962</v>
@@ -5452,12 +5433,12 @@
         <v>102.026543</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" s="8" t="s">
         <v>265</v>
       </c>
       <c r="B267" s="10" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="H267">
         <v>36.283273000000001</v>
@@ -5466,12 +5447,12 @@
         <v>100.61898600000001</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" s="8" t="s">
         <v>266</v>
       </c>
       <c r="B268" s="10" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="H268">
         <v>34.477193</v>
@@ -5480,12 +5461,12 @@
         <v>100.25159600000001</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" s="8" t="s">
         <v>267</v>
       </c>
       <c r="B269" s="10" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="H269">
         <v>36.615774000000002</v>
@@ -5494,12 +5475,12 @@
         <v>101.78344</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" s="8" t="s">
         <v>268</v>
       </c>
       <c r="B270" s="10" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="H270">
         <v>38.742356000000001</v>
@@ -5508,12 +5489,12 @@
         <v>93.340123000000006</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" s="4" t="s">
         <v>269</v>
       </c>
       <c r="B271" s="10" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="H271">
         <v>38.492462000000003</v>
@@ -5522,12 +5503,12 @@
         <v>106.238496</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" s="4" t="s">
         <v>270</v>
       </c>
       <c r="B272" s="10" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="H272">
         <v>38.989682999999999</v>
@@ -5536,12 +5517,12 @@
         <v>106.390597</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" s="8" t="s">
         <v>271</v>
       </c>
       <c r="B273" s="10" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="H273">
         <v>36.021619000000001</v>
@@ -5550,12 +5531,12 @@
         <v>106.248575</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" s="8" t="s">
         <v>272</v>
       </c>
       <c r="B274" s="10" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="H274">
         <v>38.003712999999998</v>
@@ -5564,12 +5545,12 @@
         <v>106.205367</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="8" t="s">
         <v>273</v>
       </c>
       <c r="B275" s="10" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="H275">
         <v>37.505699999999997</v>
@@ -5578,12 +5559,12 @@
         <v>105.203568</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" s="4" t="s">
         <v>274</v>
       </c>
       <c r="B276" s="10" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H276">
         <v>34.347268999999997</v>
@@ -5592,12 +5573,12 @@
         <v>108.946465</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="4" t="s">
         <v>275</v>
       </c>
       <c r="B277" s="10" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H277">
         <v>34.335476</v>
@@ -5606,12 +5587,12 @@
         <v>108.71542100000001</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" s="4" t="s">
         <v>276</v>
       </c>
       <c r="B278" s="10" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H278">
         <v>34.902638000000003</v>
@@ -5620,12 +5601,12 @@
         <v>108.952403</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" s="4" t="s">
         <v>277</v>
       </c>
       <c r="B279" s="10" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H279">
         <v>36.591112000000003</v>
@@ -5634,12 +5615,12 @@
         <v>109.496579</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" s="4" t="s">
         <v>278</v>
       </c>
       <c r="B280" s="10" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H280">
         <v>34.368915000000001</v>
@@ -5648,12 +5629,12 @@
         <v>107.24457200000001</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" s="4" t="s">
         <v>279</v>
       </c>
       <c r="B281" s="10" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="F281" s="1">
         <v>60</v>
@@ -5665,12 +5646,12 @@
         <v>109.516593</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" s="8" t="s">
         <v>280</v>
       </c>
       <c r="B282" s="10" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="F282" s="1">
         <v>170</v>
@@ -5682,12 +5663,12 @@
         <v>107.029427</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" s="8" t="s">
         <v>281</v>
       </c>
       <c r="B283" s="10" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H283">
         <v>38.290882000000003</v>
@@ -5696,12 +5677,12 @@
         <v>109.741618</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" s="8" t="s">
         <v>282</v>
       </c>
       <c r="B284" s="10" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H284">
         <v>32.690513000000003</v>
@@ -5710,12 +5691,12 @@
         <v>109.03560400000001</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" s="8" t="s">
         <v>283</v>
       </c>
       <c r="B285" s="10" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H285">
         <v>33.878633000000001</v>
@@ -5724,12 +5705,12 @@
         <v>109.924415</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" s="4" t="s">
         <v>284</v>
       </c>
       <c r="B286" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="E286" s="1">
         <v>362.7</v>
@@ -5741,12 +5722,12 @@
         <v>104.08153</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" s="4" t="s">
         <v>285</v>
       </c>
       <c r="B287" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="H287">
         <v>31.473662999999998</v>
@@ -5755,12 +5736,12 @@
         <v>104.68556</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" s="4" t="s">
         <v>286</v>
       </c>
       <c r="B288" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="H288">
         <v>28.758006999999999</v>
@@ -5769,12 +5750,12 @@
         <v>104.64940300000001</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" s="4" t="s">
         <v>287</v>
       </c>
       <c r="B289" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="F289" s="1">
         <v>150</v>
@@ -5786,12 +5767,12 @@
         <v>101.725544</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" s="4" t="s">
         <v>288</v>
       </c>
       <c r="B290" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="F290" s="1">
         <v>3</v>
@@ -5803,12 +5784,12 @@
         <v>105.448526</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" s="4" t="s">
         <v>289</v>
       </c>
       <c r="B291" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="H291">
         <v>29.345585</v>
@@ -5817,12 +5798,12 @@
         <v>104.78444500000001</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" s="4" t="s">
         <v>290</v>
       </c>
       <c r="B292" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="H292">
         <v>31.133116000000001</v>
@@ -5831,12 +5812,12 @@
         <v>104.404417</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" s="8" t="s">
         <v>291</v>
       </c>
       <c r="B293" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="H293">
         <v>30.539097000000002</v>
@@ -5845,12 +5826,12 @@
         <v>105.599424</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" s="8" t="s">
         <v>292</v>
       </c>
       <c r="B294" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="H294">
         <v>29.585885999999999</v>
@@ -5859,12 +5840,12 @@
         <v>105.06459099999999</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" s="8" t="s">
         <v>293</v>
       </c>
       <c r="B295" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="H295">
         <v>29.557939999999999</v>
@@ -5873,12 +5854,12 @@
         <v>103.77254000000001</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" s="8" t="s">
         <v>294</v>
       </c>
       <c r="B296" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="F296" s="1">
         <v>4.5</v>
@@ -5890,12 +5871,12 @@
         <v>103.856567</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" s="8" t="s">
         <v>295</v>
       </c>
       <c r="B297" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="H297">
         <v>30.461746999999999</v>
@@ -5904,12 +5885,12 @@
         <v>106.639554</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" s="8" t="s">
         <v>296</v>
       </c>
       <c r="B298" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="F298" s="1">
         <v>140</v>
@@ -5921,12 +5902,12 @@
         <v>107.474592</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" s="8" t="s">
         <v>297</v>
       </c>
       <c r="B299" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="H299">
         <v>30.134955999999999</v>
@@ -5935,12 +5916,12 @@
         <v>104.63443700000001</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" s="8" t="s">
         <v>298</v>
       </c>
       <c r="B300" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="H300">
         <v>32.441617000000001</v>
@@ -5949,12 +5930,12 @@
         <v>105.850419</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" s="4" t="s">
         <v>299</v>
       </c>
       <c r="B301" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="H301">
         <v>30.843782999999998</v>
@@ -5963,12 +5944,12 @@
         <v>106.117504</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" s="8" t="s">
         <v>300</v>
       </c>
       <c r="B302" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="H302">
         <v>31.872889000000001</v>
@@ -5977,12 +5958,12 @@
         <v>106.751582</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" s="8" t="s">
         <v>301</v>
       </c>
       <c r="B303" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="H303">
         <v>31.905512000000002</v>
@@ -5991,12 +5972,12 @@
         <v>102.231416</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" s="8" t="s">
         <v>302</v>
       </c>
       <c r="B304" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="H304">
         <v>30.055278000000001</v>
@@ -6005,12 +5986,12 @@
         <v>101.96854500000001</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" s="8" t="s">
         <v>303</v>
       </c>
       <c r="B305" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="H305">
         <v>27.887751999999999</v>
@@ -6019,12 +6000,12 @@
         <v>102.27350199999999</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" s="8" t="s">
         <v>304</v>
       </c>
       <c r="B306" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="H306">
         <v>30.016791999999999</v>
@@ -6033,7 +6014,7 @@
         <v>103.049539</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" s="9" t="s">
         <v>305</v>
       </c>
@@ -6047,12 +6028,12 @@
         <v>106.558437</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" s="4" t="s">
         <v>306</v>
       </c>
       <c r="B308" s="10" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="H308">
         <v>26.653324000000001</v>
@@ -6061,12 +6042,12 @@
         <v>106.63658</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" s="8" t="s">
         <v>307</v>
       </c>
       <c r="B309" s="10" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="H309">
         <v>26.259253000000001</v>
@@ -6075,12 +6056,12 @@
         <v>105.95441599999999</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" s="8" t="s">
         <v>308</v>
       </c>
       <c r="B310" s="10" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="H310">
         <v>27.696773</v>
@@ -6089,12 +6070,12 @@
         <v>109.18743600000001</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" s="8" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B311" s="10" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="H311">
         <v>25.093968</v>
@@ -6103,12 +6084,12 @@
         <v>104.91249000000001</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" s="8" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B312" s="10" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="H312">
         <v>26.589704000000001</v>
@@ -6117,12 +6098,12 @@
         <v>107.989447</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" s="8" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B313" s="10" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="H313">
         <v>26.260615999999999</v>
@@ -6131,12 +6112,12 @@
         <v>107.5284</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" s="4" t="s">
         <v>309</v>
       </c>
       <c r="B314" s="10" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="H314">
         <v>27.731701000000001</v>
@@ -6145,12 +6126,12 @@
         <v>106.933426</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" s="8" t="s">
         <v>310</v>
       </c>
       <c r="B315" s="10" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="H315">
         <v>26.598834</v>
@@ -6159,12 +6140,12 @@
         <v>104.837553</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" s="8" t="s">
         <v>311</v>
       </c>
       <c r="B316" s="10" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="H316">
         <v>27.304095</v>
@@ -6173,12 +6154,12 @@
         <v>105.31158000000001</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" s="4" t="s">
         <v>312</v>
       </c>
       <c r="B317" s="10" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="E317" s="1">
         <v>40</v>
@@ -6190,12 +6171,12 @@
         <v>102.852451</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" s="4" t="s">
         <v>313</v>
       </c>
       <c r="B318" s="10" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="F318" s="1">
         <v>123</v>
@@ -6207,12 +6188,12 @@
         <v>103.802436</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319" s="8" t="s">
         <v>314</v>
       </c>
       <c r="B319" s="10" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="H319">
         <v>25.139039</v>
@@ -6221,12 +6202,12 @@
         <v>99.177276000000006</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" s="8" t="s">
         <v>315</v>
       </c>
       <c r="B320" s="10" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="H320">
         <v>26.860657</v>
@@ -6235,12 +6216,12 @@
         <v>100.232462</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321" s="8" t="s">
         <v>316</v>
       </c>
       <c r="B321" s="10" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="H321">
         <v>25.612128999999999</v>
@@ -6249,12 +6230,12 @@
         <v>100.27458300000001</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322" s="8" t="s">
         <v>317</v>
       </c>
       <c r="B322" s="10" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="H322">
         <v>22.013601000000001</v>
@@ -6263,12 +6244,12 @@
         <v>100.803443</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" s="4" t="s">
         <v>318</v>
       </c>
       <c r="B323" s="10" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="F323" s="1">
         <v>291</v>
@@ -6280,12 +6261,12 @@
         <v>102.553557</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324" s="8" t="s">
         <v>319</v>
       </c>
       <c r="B324" s="10" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="H324">
         <v>22.805626</v>
@@ -6294,12 +6275,12 @@
         <v>100.98349899999999</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" s="8" t="s">
         <v>320</v>
       </c>
       <c r="B325" s="10" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="H325">
         <v>23.890467999999998</v>
@@ -6308,12 +6289,12 @@
         <v>100.095443</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326" s="8" t="s">
         <v>321</v>
       </c>
       <c r="B326" s="10" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="H326">
         <v>23.405995000000001</v>
@@ -6322,12 +6303,12 @@
         <v>104.222573</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327" s="8" t="s">
         <v>322</v>
       </c>
       <c r="B327" s="10" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="H327">
         <v>25.051773000000001</v>
@@ -6336,12 +6317,12 @@
         <v>101.534412</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328" s="8" t="s">
         <v>323</v>
       </c>
       <c r="B328" s="10" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="H328">
         <v>27.825185000000001</v>
@@ -6350,12 +6331,12 @@
         <v>99.709530999999998</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329" s="8" t="s">
         <v>324</v>
       </c>
       <c r="B329" s="10" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="H329">
         <v>27.344083000000001</v>
@@ -6364,12 +6345,12 @@
         <v>103.72351</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330" s="8" t="s">
         <v>325</v>
       </c>
       <c r="B330" s="10" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="H330">
         <v>23.369996</v>
@@ -6378,12 +6359,12 @@
         <v>103.381552</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331" s="8" t="s">
         <v>326</v>
       </c>
       <c r="B331" s="10" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="H331">
         <v>24.438010999999999</v>
@@ -6392,12 +6373,12 @@
         <v>98.591356000000005</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332" s="8" t="s">
         <v>327</v>
       </c>
       <c r="B332" s="10" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="H332">
         <v>25.823708</v>
@@ -6406,12 +6387,12 @@
         <v>98.863291000000004</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333" s="4" t="s">
         <v>328</v>
       </c>
       <c r="B333" s="10" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="H333">
         <v>29.650040000000001</v>
@@ -6420,12 +6401,12 @@
         <v>91.120823000000001</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334" s="8" t="s">
         <v>329</v>
       </c>
       <c r="B334" s="10" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="H334">
         <v>31.149622000000001</v>
@@ -6434,12 +6415,12 @@
         <v>97.174824999999998</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335" s="8" t="s">
         <v>330</v>
       </c>
       <c r="B335" s="10" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="H335">
         <v>29.243027000000001</v>
@@ -6448,12 +6429,12 @@
         <v>91.778678999999997</v>
       </c>
     </row>
-    <row r="336" spans="1:9" ht="28" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A336" s="8" t="s">
         <v>331</v>
       </c>
       <c r="B336" s="10" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="H336">
         <v>29.255583000000001</v>
@@ -6462,12 +6443,12 @@
         <v>88.902951999999999</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337" s="8" t="s">
         <v>332</v>
       </c>
       <c r="B337" s="10" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="H337">
         <v>29.673397000000001</v>
@@ -6476,12 +6457,12 @@
         <v>91.134439999999998</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338" s="8" t="s">
         <v>333</v>
       </c>
       <c r="B338" s="10" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="H338">
         <v>32.506866000000002</v>
@@ -6490,12 +6471,12 @@
         <v>80.112780999999998</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339" s="8" t="s">
         <v>334</v>
       </c>
       <c r="B339" s="10" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="H339">
         <v>29.661791000000001</v>
@@ -6507,5 +6488,6 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>